--- a/数据整理/stocks/A股/创业板/300682-朗新科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300682-朗新科技.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>519997</t>
+          <t>009984</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>长信银利精选混合</t>
+          <t>鹏华启航两年封闭运作混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>79.30</t>
+          <t>16.54</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>4.06</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>2</v>
+          <t>78.21</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7294</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -530,15 +550,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>17.46</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>89.48</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>4.06</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7089</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>3</v>
       </c>
     </row>
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>009984</t>
+          <t>519997</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>鹏华启航两年封闭运作混合</t>
+          <t>长信银利精选混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>78.21</t>
+          <t>7.93</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4.41</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>5</v>
+          <t>79.30</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3220</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>210002</t>
+          <t>210009</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>金鹰红利价值混合</t>
+          <t>金鹰核心资源混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>74.22</t>
+          <t>4.12</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3.71</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>9</v>
+          <t>90.93</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2192</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>210009</t>
+          <t>210002</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>金鹰核心资源混合</t>
+          <t>金鹰红利价值混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>90.93</t>
+          <t>0.63</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>5.32</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>4</v>
+          <t>74.22</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0234</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -637,7 +697,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -658,15 +718,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -678,26 +748,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>162102</t>
+          <t>009984</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>金鹰中小盘精选混合</t>
+          <t>鹏华启航两年封闭运作混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>77.81</t>
+          <t>16.53</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>6.61</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>1</v>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8034</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -706,25 +786,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>210009</t>
+          <t>519995</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>金鹰核心资源混合</t>
+          <t>长信金利趋势混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>92.60</t>
+          <t>18.11</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>6.14</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
+          <t>86.11</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7516</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>2</v>
       </c>
     </row>
@@ -734,26 +824,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>009984</t>
+          <t>162102</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>鹏华启航两年封闭运作混合</t>
+          <t>金鹰中小盘精选混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>94.26</t>
+          <t>3.55</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4.86</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>6</v>
+          <t>77.81</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2347</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -762,25 +862,35 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>519995</t>
+          <t>210009</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>长信金利趋势混合</t>
+          <t>金鹰核心资源混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>86.11</t>
+          <t>3.82</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4.15</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2345</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>2</v>
       </c>
     </row>
@@ -800,15 +910,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>93.88</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>4.16</t>
         </is>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0990</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>9</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300682-朗新科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300682-朗新科技.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -935,4 +936,364 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009984</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华启航两年封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>16.86</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8396</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>519995</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>长信金利趋势混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>14.39</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.24</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6058</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>160613</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华盛世创新混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1724</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>210009</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>金鹰核心资源混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1698</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009023</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华稳健回报混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>95.91</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1670</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>162102</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>金鹰中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>75.34</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1529</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008134</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华优选价值股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1065</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001167</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>金鹰科技创新股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.66</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1028</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300682-朗新科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300682-朗新科技.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1296,4 +1297,856 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009984</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华启航两年封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>16.24</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.94</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2895</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>519995</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>长信金利趋势混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>14.47</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>82.52</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7134</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>519908</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏兴华混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>10.28</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.68</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4348</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>110002</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达策略成长混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>12.11</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.77</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3439</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>160613</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华盛世创新混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.34</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.14</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2621</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009023</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏华稳健回报混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.87</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>9.93</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2572</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011574</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华领航一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>85.43</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1695</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>162102</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>金鹰中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>77.47</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1573</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008134</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鹏华优选价值股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.31</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.27</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1490</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>210009</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>金鹰核心资源混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1362</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001167</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>金鹰科技创新股票</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1178</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001366</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>金鹰产业整合灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>86.07</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1084</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011575</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>鹏华领航一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>85.43</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0755</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>210006</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>金鹰元禧混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>7.99</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>21.36</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0543</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009188</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>鹏华股息精选混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>80.22</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7.51</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0496</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>000110</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>金鹰元安混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>7.57</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>22.92</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0469</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>210010</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>金鹰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>7.05</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>22.80</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0451</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>002425</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>金鹰元禧混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>21.36</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0222</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>002513</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>金鹰元安混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>22.92</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>210011</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>金鹰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>22.80</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>960004</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华夏兴华混合H</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.68</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300682-朗新科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300682-朗新科技.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2149,4 +2150,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>21</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.46</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.32</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.12</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300682-朗新科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300682-朗新科技.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2158,7 +2159,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2169,17 +2170,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2189,14 +2210,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>21</v>
-      </c>
-      <c r="D2" t="n">
-        <v>4.46</v>
+          <t>009661</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>平安研究睿选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>79.21</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.9209</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -2205,14 +2248,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>8</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.32</v>
+          <t>008065</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富中盘积极成长混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>125.94</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>79.46</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.2115</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -2221,14 +2286,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>5</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.12</v>
+          <t>010242</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>平安稳健增长混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>59.06</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>35.16</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.2816</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -2237,13 +2324,1555 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>008370</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰研究精选两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>13.75</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.61</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.1839</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>519995</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>长信金利趋势混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>20.95</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.13</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.0517</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>020001</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国泰金鹰增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>16.01</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.57</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.9318</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001645</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国泰大健康股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>15.61</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.26</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.9132</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>519908</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华夏兴华混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>11.00</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.44</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.96</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.7656</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>257070</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国联安优选行业混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>14.09</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.6989</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>003962</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>易方达瑞程灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>26.19</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.6809</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>110002</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>易方达策略成长混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>13.31</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.5816</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009984</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>鹏华启航两年封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>16.94</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>88.54</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.5777</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001956</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国联安科技动力股票</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>11.69</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.5705</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011392</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>平安兴鑫回报一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>10.90</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.08</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.5178</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>007082</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>平安高端制造混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>9.93</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.4836</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010243</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>平安稳健增长混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>21.01</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>35.16</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.4559</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>501096</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>国联安科技创新 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>79.99</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3873</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>160215</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>国泰价值经典灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.04</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3746</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001297</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>平安智慧中国灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>7.42</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>86.55</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3695</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009804</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>国泰研究优势混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.27</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3206</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>007083</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>平安高端制造混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2961</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009662</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>平安研究睿选混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2495</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001366</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>金鹰产业整合灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>7.40</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2094</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>013023</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>平安均衡优选1年持有混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>72.86</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2046</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>003961</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>易方达瑞程灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1820</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>160613</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>鹏华盛世创新混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>95.83</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1613</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>008066</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>汇添富中盘积极成长混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>79.46</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1535</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>011574</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>鹏华领航一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.98</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1488</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>501097</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>国寿安保科技创新3年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>43.03</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1108</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>008134</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>鹏华优选价值股票</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.95</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1059</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>011575</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>鹏华领航一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.98</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0685</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>011599</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>国联安匠心科技1个月滚动持有混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0526</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>210006</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>金鹰元禧混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>7.98</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>24.33</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0487</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>000110</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>金鹰元安混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>7.95</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>23.91</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0469</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>210010</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>金鹰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>7.67</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>23.75</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0445</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>011321</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>国泰大健康股票C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>90.26</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0292</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>210011</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>金鹰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>23.75</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>002425</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>金鹰元禧混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>24.33</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>002513</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>金鹰元安混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>23.91</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>013024</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>平安均衡优选1年持有混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>72.86</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>960004</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>华夏兴华混合H</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>89.44</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>6.96</t>
+        </is>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>41</v>
+      </c>
+      <c r="D2" t="n">
+        <v>21.46</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>21</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.46</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>8</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.32</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>5</v>
       </c>
       <c r="D5" t="n">
+        <v>2.12</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
         <v>2</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300682-朗新科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300682-朗新科技.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3771,7 +3772,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3782,17 +3783,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3802,14 +3823,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>41</v>
-      </c>
-      <c r="D2" t="n">
-        <v>21.46</v>
+          <t>001645</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰大健康股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>34.81</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.96</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.7709</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -3818,14 +3861,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>21</v>
-      </c>
-      <c r="D3" t="n">
-        <v>4.46</v>
+          <t>519995</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>长信金利趋势混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>56.80</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.00</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.1811</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -3834,14 +3899,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>8</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.32</v>
+          <t>008065</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富中盘积极成长混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>41.22</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>73.48</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.5169</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -3850,14 +3937,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>5</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2.12</v>
+          <t>020001</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰金鹰增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>17.38</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.77</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.21</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.4269</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -3866,13 +3975,1231 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>009661</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>平安研究睿选混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>22.07</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.85</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.0925</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010242</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>平安稳健增长混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>50.24</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>34.03</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.9646</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009805</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国泰医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>12.14</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6713</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>519908</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华夏兴华混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>9.39</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.83</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5747</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>960004</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华夏兴华混合H</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>9.39</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.83</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5747</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>160215</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国泰价值经典灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.20</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.5215</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>007082</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>平安高端制造混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>10.45</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>88.42</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.5110</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011392</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>平安兴鑫回报一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>7.07</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>99.45</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4390</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008370</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国泰研究精选两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>9.52</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3951</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010243</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>平安稳健增长混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>17.89</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>34.03</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3435</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009804</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国泰研究优势混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.91</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>8.11</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3358</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>160212</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>国泰估值优势混合 (LOF)</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>8.98</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>62.69</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3143</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001297</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>平安智慧中国灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>84.03</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2779</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011321</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>国泰大健康股票C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7.96</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2762</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>013023</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>平安均衡优选1年持有混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.64</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2059</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009662</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>平安研究睿选混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>89.85</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1985</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>007083</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>平安高端制造混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>88.42</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1971</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001366</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>金鹰产业整合灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.56</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1729</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>008066</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>汇添富中盘积极成长混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>73.48</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1586</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011326</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>国泰医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0603</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>004266</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>招商沪港深科技创新主题精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>88.85</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0476</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>210006</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>金鹰元禧混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>7.07</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>22.58</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0368</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>000110</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>金鹰元安混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>22.33</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0349</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>210010</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>金鹰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>23.34</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0338</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>210011</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>金鹰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>23.34</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0199</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>002425</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>金鹰元禧混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>22.58</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>013024</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>平安均衡优选1年持有混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>90.64</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>002513</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>金鹰元安混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>22.33</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>010754</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>招商沪港深科技创新主题精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>88.85</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>33</v>
+      </c>
+      <c r="D2" t="n">
+        <v>16.41</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>41</v>
+      </c>
+      <c r="D3" t="n">
+        <v>21.46</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>21</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.46</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>8</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.32</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>5</v>
       </c>
       <c r="D6" t="n">
+        <v>2.12</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="n">
         <v>2</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300682-朗新科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300682-朗新科技.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5082,7 +5083,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5093,17 +5094,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -5113,14 +5134,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>33</v>
-      </c>
-      <c r="D2" t="n">
-        <v>16.41</v>
+          <t>001645</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰大健康股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>34.61</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.74</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.3327</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -5129,14 +5172,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>41</v>
-      </c>
-      <c r="D3" t="n">
-        <v>21.46</v>
+          <t>020001</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰金鹰增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>18.75</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.2600</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -5145,14 +5210,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>21</v>
-      </c>
-      <c r="D4" t="n">
-        <v>4.46</v>
+          <t>519995</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>长信金利趋势混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>43.03</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9338</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -5161,14 +5248,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>8</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2.32</v>
+          <t>010242</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>平安稳健增长混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>49.58</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>34.13</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6842</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -5177,14 +5286,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>5</v>
-      </c>
-      <c r="D6" t="n">
-        <v>2.12</v>
+          <t>160212</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰估值优势混合 (LOF)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>9.76</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.91</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5710</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -5193,13 +5324,487 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>519908</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏兴华混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>10.77</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>81.18</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5202</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>960004</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华夏兴华混合H</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>10.77</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>81.18</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5202</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009804</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国泰研究优势混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>8.22</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5047</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>160215</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国泰价值经典灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3834</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011392</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>平安兴鑫回报一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>7.80</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>85.43</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2644</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010243</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>平安稳健增长混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>17.63</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>34.13</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2433</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008370</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国泰研究精选两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2326</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>015039</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>长信金利趋势混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>7.96</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1727</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011321</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国泰大健康股票C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.74</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1537</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>14</v>
+      </c>
+      <c r="D2" t="n">
+        <v>8.779999999999999</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>33</v>
+      </c>
+      <c r="D3" t="n">
+        <v>16.41</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>41</v>
+      </c>
+      <c r="D4" t="n">
+        <v>21.46</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>21</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4.46</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>8</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.32</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>5</v>
       </c>
       <c r="D7" t="n">
+        <v>2.12</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>5</v>
+      </c>
+      <c r="D8" t="n">
         <v>2</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300682-朗新科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300682-朗新科技.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D2" t="n">
-        <v>8.779999999999999</v>
+        <v>6.84</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="D3" t="n">
-        <v>16.41</v>
+        <v>8.779999999999999</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D4" t="n">
-        <v>21.46</v>
+        <v>16.41</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="D5" t="n">
-        <v>4.46</v>
+        <v>21.46</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="D6" t="n">
-        <v>2.32</v>
+        <v>4.46</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D7" t="n">
-        <v>2.12</v>
+        <v>2.32</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>5</v>
       </c>
       <c r="D8" t="n">
+        <v>2.12</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>5</v>
+      </c>
+      <c r="D9" t="n">
         <v>2</v>
       </c>
     </row>
@@ -600,6 +617,554 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001645</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰大健康股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>36.92</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.2632</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>020001</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰金鹰增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>20.78</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.3403</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>519995</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>长信金利趋势混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>45.23</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.89</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9860</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009804</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰研究优势混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>12.23</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7644</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>960004</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏兴华混合H</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>10.35</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>83.78</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4430</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>160215</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国泰价值经典灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2981</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>015039</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>长信金利趋势混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>11.84</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>85.89</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2581</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011321</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国泰大健康股票C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1962</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008370</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国泰研究精选两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1943</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>003655</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>信澳新财富灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>54.87</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0832</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>012005</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>信澳恒盛混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>30.06</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>012006</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>信澳恒盛混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>30.06</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>519908</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华夏兴华混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>83.78</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1187,7 +1752,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2497,7 +3062,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4109,7 +4674,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4961,7 +5526,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5321,7 +5886,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5567,7 +6132,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/创业板/300682-朗新科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300682-朗新科技.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>6.84</v>
+        <v>5.97</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D3" t="n">
-        <v>8.779999999999999</v>
+        <v>6.84</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="D4" t="n">
-        <v>16.41</v>
+        <v>8.779999999999999</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D5" t="n">
-        <v>21.46</v>
+        <v>16.41</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="D6" t="n">
-        <v>4.46</v>
+        <v>21.46</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="D7" t="n">
-        <v>2.32</v>
+        <v>4.46</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D8" t="n">
-        <v>2.12</v>
+        <v>2.32</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C9" t="n">
         <v>5</v>
       </c>
       <c r="D9" t="n">
+        <v>2.12</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>5</v>
+      </c>
+      <c r="D10" t="n">
         <v>2</v>
       </c>
     </row>
@@ -616,7 +633,537 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009984</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华启航两年封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>16.54</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>78.21</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7294</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>519995</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>长信金利趋势混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>17.46</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.48</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7089</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>519997</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>长信银利精选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.93</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>79.30</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3220</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>210009</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>金鹰核心资源混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.93</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2192</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>210002</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>金鹰红利价值混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>74.22</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0234</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001645</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰大健康股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>36.92</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.89</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.5438</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>020001</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰金鹰增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>20.52</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.21</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.4795</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009804</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰研究优势混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>15.37</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.0021</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>160215</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰价值经典灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4135</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011321</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰大健康股票C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.89</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3831</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008370</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国泰研究精选两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1462</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1164,7 +1711,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1752,7 +2299,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3062,7 +3609,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4674,7 +5221,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5526,7 +6073,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5886,7 +6433,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6130,250 +6677,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H6"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>009984</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>鹏华启航两年封闭运作混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>16.54</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>78.21</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.41</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.7294</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>519995</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>长信金利趋势混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>17.46</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>89.48</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.06</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.7089</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>519997</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>长信银利精选混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>7.93</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>79.30</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.06</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.3220</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>210009</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>金鹰核心资源混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>4.12</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>90.93</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>5.32</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.2192</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>210002</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>金鹰红利价值混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.63</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>74.22</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.71</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0234</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>